--- a/Expensas Mayo.xlsx
+++ b/Expensas Mayo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7cd0c2b3b6913ea/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Documents\GitHub\Tenis School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{42B757BD-EDFB-4B97-9FC9-6D5B7600E389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B33D9276-ACC2-49FD-A1F9-6F96261BA771}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3FF4C-18B9-4980-B5A1-645E6D1EB3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="330" windowWidth="20670" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
   <si>
     <t>May</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>de pesos</t>
+  </si>
+  <si>
+    <t>Agrego para guihub</t>
+  </si>
+  <si>
+    <t>Agregoaldjf{lñaskdjfñ}asd</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -318,7 +324,6 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -330,9 +335,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -343,7 +346,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="4"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
@@ -357,6 +359,12 @@
   <dxfs count="3">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -368,12 +376,6 @@
         <i val="0"/>
         <strike val="0"/>
         <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
       </font>
     </dxf>
   </dxfs>
@@ -686,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,113 +708,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16">
         <f>SUM(C3:C8)</f>
         <v>2873425</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <f t="shared" ref="D2:F2" si="0">SUM(D3:D8)</f>
         <v>3075148</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <f t="shared" si="0"/>
         <v>3345618</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <f t="shared" si="0"/>
         <v>3692042</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="18">
-        <f>IF(C2,D2/C2-1,"")</f>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="17">
+        <f t="shared" ref="I2:K8" si="1">IF(C2,D2/C2-1,"")</f>
         <v>7.0202980763374612E-2</v>
       </c>
-      <c r="J2" s="18">
-        <f>IF(D2,E2/D2-1,"")</f>
+      <c r="J2" s="17">
+        <f t="shared" si="1"/>
         <v>8.7953490368593679E-2</v>
       </c>
-      <c r="K2" s="18">
-        <f>IF(E2,F2/E2-1,"")</f>
+      <c r="K2" s="17">
+        <f t="shared" si="1"/>
         <v>0.10354559307129496</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="19">
-        <f t="shared" ref="M2:M4" si="1">IFERROR(AVERAGE(I2:K2),"")</f>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18">
+        <f t="shared" ref="M2:M4" si="2">IFERROR(AVERAGE(I2:K2),"")</f>
         <v>8.7234021401087755E-2</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="18">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="17">
         <f>SUM(P3:P8)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="18">
-        <f t="shared" ref="Q2:T2" si="2">SUM(Q3:Q8)</f>
+      <c r="Q2" s="17">
+        <f t="shared" ref="Q2:T2" si="3">SUM(Q3:Q8)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="18">
-        <f t="shared" si="2"/>
+      <c r="R2" s="17">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S2" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <f t="shared" si="2"/>
+      <c r="S2" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="17">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -833,32 +835,32 @@
         <v>3260358</v>
       </c>
       <c r="I3" s="4">
-        <f>IF(C3,D3/C3-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0.15762206288148684</v>
       </c>
       <c r="J3" s="4">
-        <f>IF(D3,E3/D3-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>IF(E3,F3/E3-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0.11999997251835604</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.254067846661429E-2</v>
       </c>
       <c r="P3" s="4">
-        <f>D3/D$45</f>
+        <f t="shared" ref="P3:R8" si="4">D3/D$45</f>
         <v>0.94663216209431222</v>
       </c>
       <c r="Q3" s="4">
-        <f>E3/E$45</f>
+        <f t="shared" si="4"/>
         <v>0.87010352048560236</v>
       </c>
       <c r="R3" s="4">
-        <f>F3/F$45</f>
+        <f t="shared" si="4"/>
         <v>0.88307716976134076</v>
       </c>
       <c r="S3" s="4"/>
@@ -886,32 +888,32 @@
         <v>84000</v>
       </c>
       <c r="I4" s="4">
-        <f>IF(C4,D4/C4-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f>IF(D4,E4/D4-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f>IF(E4,F4/E4-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0.25560538116591935</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5201793721973118E-2</v>
       </c>
       <c r="P4" s="4">
-        <f>D4/D$45</f>
+        <f t="shared" si="4"/>
         <v>2.175505048862689E-2</v>
       </c>
       <c r="Q4" s="4">
-        <f>E4/E$45</f>
+        <f t="shared" si="4"/>
         <v>1.9996305615285426E-2</v>
       </c>
       <c r="R4" s="4">
-        <f>F4/F$45</f>
+        <f t="shared" si="4"/>
         <v>2.2751637169891349E-2</v>
       </c>
       <c r="S4" s="4"/>
@@ -931,32 +933,32 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="I5" s="4" t="str">
-        <f>IF(C5,D5/C5-1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J5" s="4" t="str">
-        <f>IF(D5,E5/D5-1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K5" s="4" t="str">
-        <f>IF(E5,F5/E5-1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="12" t="str">
+      <c r="M5" s="5" t="str">
         <f>IFERROR(AVERAGE(I5:K5),"")</f>
         <v/>
       </c>
       <c r="P5" s="4">
-        <f>D5/D$45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5" s="4">
-        <f>E5/E$45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <f>F5/F$45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S5" s="4"/>
@@ -984,36 +986,36 @@
         <v>67214</v>
       </c>
       <c r="I6" s="4">
-        <f>IF(C6,D6/C6-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0.22523606401983298</v>
       </c>
       <c r="J6" s="4">
-        <f>IF(D6,E6/D6-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f>IF(E6,F6/E6-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="5">
-        <f t="shared" ref="M6:M8" si="3">AVERAGE(I6:K6)</f>
+        <f t="shared" ref="M6:M8" si="5">AVERAGE(I6:K6)</f>
         <v>7.5078688006610994E-2</v>
       </c>
       <c r="P6" s="4">
-        <f>D6/D$45</f>
+        <f t="shared" si="4"/>
         <v>2.1857159395255121E-2</v>
       </c>
       <c r="Q6" s="4">
-        <f>E6/E$45</f>
+        <f t="shared" si="4"/>
         <v>2.0090159725348201E-2</v>
       </c>
       <c r="R6" s="4">
-        <f>F6/F$45</f>
+        <f t="shared" si="4"/>
         <v>1.8205101675441395E-2</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" ref="T6:T8" si="4">AVERAGE(P6:R6)</f>
+        <f t="shared" ref="T6:T8" si="6">AVERAGE(P6:R6)</f>
         <v>2.0050806932014904E-2</v>
       </c>
       <c r="Y6" s="5"/>
@@ -1036,36 +1038,36 @@
         <v>30000</v>
       </c>
       <c r="I7" s="4">
-        <f>IF(C7,D7/C7-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <f>IF(D7,E7/D7-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="K7" s="4">
-        <f>IF(E7,F7/E7-1,"")</f>
+        <f t="shared" si="1"/>
         <v>-0.4</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="P7" s="4">
-        <f>D7/D$45</f>
+        <f t="shared" si="4"/>
         <v>9.75562802180578E-3</v>
       </c>
       <c r="Q7" s="4">
-        <f>E7/E$45</f>
+        <f t="shared" si="4"/>
         <v>1.4944921984518257E-2</v>
       </c>
       <c r="R7" s="4">
-        <f>F7/F$45</f>
+        <f t="shared" si="4"/>
         <v>8.1255847035326245E-3</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0942044903285554E-2</v>
       </c>
       <c r="Y7" s="5"/>
@@ -1086,36 +1088,36 @@
         <v>250470</v>
       </c>
       <c r="I8" s="4">
-        <f>IF(C8,D8/C8-1,"")</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="J8" s="4" t="str">
-        <f>IF(D8,E8/D8-1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" s="4">
-        <f>IF(E8,F8/E8-1,"")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="12">
-        <f t="shared" si="3"/>
+      <c r="M8" s="5">
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
       <c r="P8" s="4">
-        <f>D8/D$45</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <f>E8/E$45</f>
+        <f t="shared" si="4"/>
         <v>7.4865092189245752E-2</v>
       </c>
       <c r="R8" s="4">
-        <f>F8/F$45</f>
+        <f t="shared" si="4"/>
         <v>6.7840506689793884E-2</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7568532959679881E-2</v>
       </c>
       <c r="Y8" s="5"/>
@@ -1127,112 +1129,112 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13" t="s">
+      <c r="L10" s="12"/>
+      <c r="M10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="13" t="s">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13" t="s">
+      <c r="Q10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13" t="s">
+      <c r="S10" s="12"/>
+      <c r="T10" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16">
         <f>SUM(C12:C21)</f>
         <v>2391544</v>
       </c>
-      <c r="D11" s="17">
-        <f t="shared" ref="D11:F11" si="5">SUM(D12:D21)</f>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11:F11" si="7">SUM(D12:D21)</f>
         <v>2663670</v>
       </c>
-      <c r="E11" s="17">
-        <f t="shared" si="5"/>
+      <c r="E11" s="16">
+        <f t="shared" si="7"/>
         <v>2462692</v>
       </c>
-      <c r="F11" s="17">
-        <f t="shared" si="5"/>
+      <c r="F11" s="16">
+        <f t="shared" si="7"/>
         <v>2891578</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18">
-        <f>IF(C11,D11/C11-1,"")</f>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="17">
+        <f t="shared" ref="I11:I21" si="8">IF(C11,D11/C11-1,"")</f>
         <v>0.11378674195415184</v>
       </c>
-      <c r="J11" s="18">
-        <f>IF(D11,E11/D11-1,"")</f>
+      <c r="J11" s="17">
+        <f t="shared" ref="J11:J21" si="9">IF(D11,E11/D11-1,"")</f>
         <v>-7.5451538666576612E-2</v>
       </c>
-      <c r="K11" s="18">
-        <f>IF(E11,F11/E11-1,"")</f>
+      <c r="K11" s="17">
+        <f t="shared" ref="K11:K21" si="10">IF(E11,F11/E11-1,"")</f>
         <v>0.17415332489811952</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19">
-        <f t="shared" ref="M11:M12" si="6">IFERROR(AVERAGE(I11:K11),"")</f>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18">
+        <f t="shared" ref="M11:M12" si="11">IFERROR(AVERAGE(I11:K11),"")</f>
         <v>7.0829509395231582E-2</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="18">
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="17">
         <f>SUM(P12:P21)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q11" s="18">
-        <f t="shared" ref="Q11:R11" si="7">SUM(Q12:Q21)</f>
+      <c r="Q11" s="17">
+        <f t="shared" ref="Q11:R11" si="12">SUM(Q12:Q21)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R11" s="18">
-        <f t="shared" si="7"/>
+      <c r="R11" s="17">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="S11" s="18">
-        <f t="shared" ref="S11" si="8">SUM(S12:S17)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="18">
+      <c r="S11" s="17">
+        <f t="shared" ref="S11" si="13">SUM(S12:S17)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
         <f>SUM(T12:T21)</f>
         <v>1</v>
       </c>
@@ -1254,37 +1256,37 @@
         <v>1648581</v>
       </c>
       <c r="I12" s="4">
-        <f>IF(C12,D12/C12-1,"")</f>
+        <f t="shared" si="8"/>
         <v>-1.2075833975047856E-2</v>
       </c>
       <c r="J12" s="4">
-        <f>IF(D12,E12/D12-1,"")</f>
+        <f t="shared" si="9"/>
         <v>9.9999706414261258E-2</v>
       </c>
       <c r="K12" s="4">
-        <f>IF(E12,F12/E12-1,"")</f>
+        <f t="shared" si="10"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.2641290813071168E-2</v>
       </c>
       <c r="P12" s="4">
-        <f>D12/D$46</f>
+        <f t="shared" ref="P12:P21" si="14">D12/D$46</f>
         <v>0.51149879677287347</v>
       </c>
       <c r="Q12" s="4">
-        <f>E12/E$46</f>
+        <f t="shared" ref="Q12:Q21" si="15">E12/E$46</f>
         <v>0.60856574837616717</v>
       </c>
       <c r="R12" s="4">
-        <f>F12/F$46</f>
+        <f t="shared" ref="R12:R21" si="16">F12/F$46</f>
         <v>0.57013194871450812</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4">
-        <f t="shared" ref="T12:T21" si="9">AVERAGE(P12:R12)</f>
+        <f t="shared" ref="T12:T21" si="17">AVERAGE(P12:R12)</f>
         <v>0.56339883128784962</v>
       </c>
     </row>
@@ -1305,37 +1307,37 @@
         <v>60000</v>
       </c>
       <c r="I13" s="4">
-        <f>IF(C13,D13/C13-1,"")</f>
+        <f t="shared" si="8"/>
         <v>1.0408163265306123</v>
       </c>
       <c r="J13" s="4">
-        <f>IF(D13,E13/D13-1,"")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <f>IF(E13,F13/E13-1,"")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="5">
-        <f t="shared" ref="M13:M21" si="10">IFERROR(AVERAGE(I13:K13),"")</f>
+        <f t="shared" ref="M13:M21" si="18">IFERROR(AVERAGE(I13:K13),"")</f>
         <v>0.34693877551020408</v>
       </c>
       <c r="P13" s="4">
-        <f>D13/D$46</f>
+        <f t="shared" si="14"/>
         <v>2.2525312820281793E-2</v>
       </c>
       <c r="Q13" s="4">
-        <f>E13/E$46</f>
+        <f t="shared" si="15"/>
         <v>2.4363582616096533E-2</v>
       </c>
       <c r="R13" s="4">
-        <f>F13/F$46</f>
+        <f t="shared" si="16"/>
         <v>2.0749915789925084E-2</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2.2546270408767805E-2</v>
       </c>
     </row>
@@ -1356,37 +1358,37 @@
         <v>200000</v>
       </c>
       <c r="I14" s="4">
-        <f>IF(C14,D14/C14-1,"")</f>
+        <f t="shared" si="8"/>
         <v>1.8923299999999998</v>
       </c>
       <c r="J14" s="4">
-        <f>IF(D14,E14/D14-1,"")</f>
+        <f t="shared" si="9"/>
         <v>-0.65425798577617356</v>
       </c>
       <c r="K14" s="4">
-        <f>IF(E14,F14/E14-1,"")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.41269067140794213</v>
       </c>
       <c r="P14" s="4">
-        <f>D14/D$46</f>
+        <f t="shared" si="14"/>
         <v>0.2171687934316188</v>
       </c>
       <c r="Q14" s="4">
-        <f>E14/E$46</f>
+        <f t="shared" si="15"/>
         <v>8.1211942053655103E-2</v>
       </c>
       <c r="R14" s="4">
-        <f>F14/F$46</f>
+        <f t="shared" si="16"/>
         <v>6.9166385966416957E-2</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.1225157071505636</v>
       </c>
     </row>
@@ -1407,37 +1409,37 @@
         <v>257120</v>
       </c>
       <c r="I15" s="4">
-        <f>IF(C15,D15/C15-1,"")</f>
+        <f t="shared" si="8"/>
         <v>-0.22272253603989867</v>
       </c>
       <c r="J15" s="4">
-        <f>IF(D15,E15/D15-1,"")</f>
+        <f t="shared" si="9"/>
         <v>0.2001009211528757</v>
       </c>
       <c r="K15" s="4">
-        <f>IF(E15,F15/E15-1,"")</f>
+        <f t="shared" si="10"/>
         <v>5.9912773202080993E-2</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>1.2430386105019342E-2</v>
       </c>
       <c r="P15" s="4">
-        <f>D15/D$46</f>
+        <f t="shared" si="14"/>
         <v>7.5887028047768673E-2</v>
       </c>
       <c r="Q15" s="4">
-        <f>E15/E$46</f>
+        <f t="shared" si="15"/>
         <v>9.8504400875139883E-2</v>
       </c>
       <c r="R15" s="4">
-        <f>F15/F$46</f>
+        <f t="shared" si="16"/>
         <v>8.8920305798425636E-2</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.7770578240444722E-2</v>
       </c>
     </row>
@@ -1458,37 +1460,37 @@
         <v>149383</v>
       </c>
       <c r="I16" s="4">
-        <f>IF(C16,D16/C16-1,"")</f>
+        <f t="shared" si="8"/>
         <v>-0.27798544166830608</v>
       </c>
       <c r="J16" s="4">
-        <f>IF(D16,E16/D16-1,"")</f>
+        <f t="shared" si="9"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K16" s="4">
-        <f>IF(E16,F16/E16-1,"")</f>
+        <f t="shared" si="10"/>
         <v>5.9995174841053656E-2</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-5.996755609084155E-3</v>
       </c>
       <c r="P16" s="4">
-        <f>D16/D$46</f>
+        <f t="shared" si="14"/>
         <v>4.4089545626898229E-2</v>
       </c>
       <c r="Q16" s="4">
-        <f>E16/E$46</f>
+        <f t="shared" si="15"/>
         <v>5.7225182848687536E-2</v>
       </c>
       <c r="R16" s="4">
-        <f>F16/F$46</f>
+        <f t="shared" si="16"/>
         <v>5.1661411174106317E-2</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>5.0992046549897363E-2</v>
       </c>
     </row>
@@ -1498,41 +1500,41 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="33">
+      <c r="F17" s="29">
         <v>149383</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f>IF(C17,D17/C17-1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J17" s="4" t="str">
-        <f>IF(D17,E17/D17-1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K17" s="4" t="str">
-        <f>IF(E17,F17/E17-1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P17" s="4">
-        <f>D17/D$46</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
-        <f>E17/E$46</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <f>F17/F$46</f>
+        <f t="shared" si="16"/>
         <v>5.1661411174106317E-2</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.7220470391368772E-2</v>
       </c>
     </row>
@@ -1553,37 +1555,37 @@
         <v>316856</v>
       </c>
       <c r="I18" s="4">
-        <f>IF(C18,D18/C18-1,"")</f>
+        <f t="shared" si="8"/>
         <v>-0.27746450032684111</v>
       </c>
       <c r="J18" s="4">
-        <f>IF(D18,E18/D18-1,"")</f>
+        <f t="shared" si="9"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K18" s="4">
-        <f>IF(E18,F18/E18-1,"")</f>
+        <f t="shared" si="10"/>
         <v>0.4390640470156506</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.12053318222960314</v>
       </c>
       <c r="P18" s="4">
-        <f>D18/D$46</f>
+        <f t="shared" si="14"/>
         <v>6.8884283713823408E-2</v>
       </c>
       <c r="Q18" s="4">
-        <f>E18/E$46</f>
+        <f t="shared" si="15"/>
         <v>8.9407039126289445E-2</v>
       </c>
       <c r="R18" s="4">
-        <f>F18/F$46</f>
+        <f t="shared" si="16"/>
         <v>0.10957892195887504</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.9290081599662632E-2</v>
       </c>
     </row>
@@ -1604,37 +1606,37 @@
         <v>60255</v>
       </c>
       <c r="I19" s="4">
-        <f>IF(C19,D19/C19-1,"")</f>
+        <f t="shared" si="8"/>
         <v>-0.25654218043111865</v>
       </c>
       <c r="J19" s="4">
-        <f>IF(D19,E19/D19-1,"")</f>
+        <f t="shared" si="9"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K19" s="4">
-        <f>IF(E19,F19/E19-1,"")</f>
+        <f t="shared" si="10"/>
         <v>0.19824603269299601</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4.723461742062577E-2</v>
       </c>
       <c r="P19" s="4">
-        <f>D19/D$46</f>
+        <f t="shared" si="14"/>
         <v>1.5732053895565142E-2</v>
       </c>
       <c r="Q19" s="4">
-        <f>E19/E$46</f>
+        <f t="shared" si="15"/>
         <v>2.0419118590550504E-2</v>
       </c>
       <c r="R19" s="4">
-        <f>F19/F$46</f>
+        <f t="shared" si="16"/>
         <v>2.0838102932032268E-2</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.8996425139382638E-2</v>
       </c>
     </row>
@@ -1648,37 +1650,37 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="I20" s="4" t="str">
-        <f>IF(C20,D20/C20-1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J20" s="4">
-        <f>IF(D20,E20/D20-1,"")</f>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K20" s="4" t="str">
-        <f>IF(E20,F20/E20-1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-1</v>
       </c>
       <c r="P20" s="4">
-        <f>D20/D$46</f>
+        <f t="shared" si="14"/>
         <v>2.5443091674268961E-2</v>
       </c>
       <c r="Q20" s="4">
-        <f>E20/E$46</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R20" s="4">
-        <f>F20/F$46</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.4810305580896531E-3</v>
       </c>
     </row>
@@ -1699,37 +1701,37 @@
         <v>50000</v>
       </c>
       <c r="I21" s="4">
-        <f>IF(C21,D21/C21-1,"")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>IF(D21,E21/D21-1,"")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>IF(E21,F21/E21-1,"")</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f>D21/D$46</f>
+        <f t="shared" si="14"/>
         <v>1.8771094016901493E-2</v>
       </c>
       <c r="Q21" s="4">
-        <f>E21/E$46</f>
+        <f t="shared" si="15"/>
         <v>2.0302985513413776E-2</v>
       </c>
       <c r="R21" s="4">
-        <f>F21/F$46</f>
+        <f t="shared" si="16"/>
         <v>1.7291596491604239E-2</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.8788558673973169E-2</v>
       </c>
     </row>
@@ -1739,113 +1741,113 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13" t="s">
+      <c r="J23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13" t="s">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="13" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="13" t="s">
+      <c r="Q23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13" t="s">
+      <c r="S23" s="12"/>
+      <c r="T23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16">
         <f>SUM(C25:C29)</f>
         <v>431611</v>
       </c>
-      <c r="D24" s="17">
-        <f t="shared" ref="D24:F24" si="11">SUM(D25:D29)</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:F24" si="19">SUM(D25:D29)</f>
         <v>525305</v>
       </c>
-      <c r="E24" s="17">
-        <f t="shared" si="11"/>
+      <c r="E24" s="16">
+        <f t="shared" si="19"/>
         <v>250000</v>
       </c>
-      <c r="F24" s="17">
-        <f t="shared" si="11"/>
+      <c r="F24" s="16">
+        <f t="shared" si="19"/>
         <v>431750</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="18">
-        <f>IF(C24,D24/C24-1,"")</f>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="17">
+        <f t="shared" ref="I24:K29" si="20">IF(C24,D24/C24-1,"")</f>
         <v>0.21707973151750082</v>
       </c>
-      <c r="J24" s="18">
-        <f>IF(D24,E24/D24-1,"")</f>
+      <c r="J24" s="17">
+        <f t="shared" si="20"/>
         <v>-0.524086007176783</v>
       </c>
-      <c r="K24" s="18">
-        <f>IF(E24,F24/E24-1,"")</f>
+      <c r="K24" s="17">
+        <f t="shared" si="20"/>
         <v>0.72700000000000009</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19">
-        <f t="shared" ref="M24:M25" si="12">IFERROR(AVERAGE(I24:K24),"")</f>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18">
+        <f t="shared" ref="M24:M25" si="21">IFERROR(AVERAGE(I24:K24),"")</f>
         <v>0.13999790811357263</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="18">
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="17">
         <f>SUM(P25:P29)</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="18">
-        <f t="shared" ref="Q24:T24" si="13">SUM(Q25:Q29)</f>
+      <c r="Q24" s="17">
+        <f t="shared" ref="Q24:T24" si="22">SUM(Q25:Q29)</f>
         <v>1</v>
       </c>
-      <c r="R24" s="18">
-        <f t="shared" si="13"/>
+      <c r="R24" s="17">
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="S24" s="18">
-        <f t="shared" ref="S24" si="14">SUM(S25:S31)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="18">
-        <f t="shared" si="13"/>
+      <c r="S24" s="17">
+        <f t="shared" ref="S24" si="23">SUM(S25:S31)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="22"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -1866,37 +1868,37 @@
         <v>220000</v>
       </c>
       <c r="I25" s="4">
-        <f>IF(C25,D25/C25-1,"")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <f>IF(D25,E25/D25-1,"")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <f>IF(E25,F25/E25-1,"")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P25" s="4">
-        <f>D25/D$47</f>
+        <f t="shared" ref="P25:R29" si="24">D25/D$47</f>
         <v>0.41880431368443094</v>
       </c>
       <c r="Q25" s="4">
-        <f>E25/E$47</f>
+        <f t="shared" si="24"/>
         <v>0.88</v>
       </c>
       <c r="R25" s="4">
-        <f>F25/F$47</f>
+        <f t="shared" si="24"/>
         <v>0.50955414012738853</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4">
-        <f t="shared" ref="T25" si="15">AVERAGE(P25:R25)</f>
+        <f t="shared" ref="T25" si="25">AVERAGE(P25:R25)</f>
         <v>0.60278615127060642</v>
       </c>
     </row>
@@ -1911,37 +1913,37 @@
       </c>
       <c r="F26" s="2"/>
       <c r="I26" s="4" t="str">
-        <f>IF(C26,D26/C26-1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J26" s="4" t="str">
-        <f>IF(D26,E26/D26-1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K26" s="4">
-        <f>IF(E26,F26/E26-1,"")</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="5">
-        <f t="shared" ref="M26:M29" si="16">IFERROR(AVERAGE(I26:K26),"")</f>
+        <f t="shared" ref="M26:M29" si="26">IFERROR(AVERAGE(I26:K26),"")</f>
         <v>-1</v>
       </c>
       <c r="P26" s="4">
-        <f>D26/D$47</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q26" s="4">
-        <f>E26/E$47</f>
+        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
       <c r="R26" s="4">
-        <f>F26/F$47</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4">
-        <f t="shared" ref="T26:T29" si="17">AVERAGE(P26:R26)</f>
+        <f t="shared" ref="T26:T29" si="27">AVERAGE(P26:R26)</f>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
@@ -1960,37 +1962,37 @@
         <v>206000</v>
       </c>
       <c r="I27" s="4">
-        <f>IF(C27,D27/C27-1,"")</f>
+        <f t="shared" si="20"/>
         <v>0.10160427807486627</v>
       </c>
       <c r="J27" s="4">
-        <f>IF(D27,E27/D27-1,"")</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f>IF(E27,F27/E27-1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>-0.44919786096256686</v>
       </c>
       <c r="P27" s="4">
-        <f>D27/D$47</f>
+        <f t="shared" si="24"/>
         <v>0.39215313008633079</v>
       </c>
       <c r="Q27" s="4">
-        <f>E27/E$47</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R27" s="4">
-        <f>F27/F$47</f>
+        <f t="shared" si="24"/>
         <v>0.47712796757382747</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.28976036588671944</v>
       </c>
     </row>
@@ -2011,37 +2013,37 @@
         <v>5750</v>
       </c>
       <c r="I28" s="4">
-        <f>IF(C28,D28/C28-1,"")</f>
+        <f t="shared" si="20"/>
         <v>-0.13043478260869568</v>
       </c>
       <c r="J28" s="4">
-        <f>IF(D28,E28/D28-1,"")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <f>IF(E28,F28/E28-1,"")</f>
+        <f t="shared" si="20"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.521739130434745E-3</v>
       </c>
       <c r="P28" s="4">
-        <f>D28/D$47</f>
+        <f t="shared" si="24"/>
         <v>9.5182798564643397E-3</v>
       </c>
       <c r="Q28" s="4">
-        <f>E28/E$47</f>
+        <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
       <c r="R28" s="4">
-        <f>F28/F$47</f>
+        <f t="shared" si="24"/>
         <v>1.3317892298784018E-2</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1.4278724051749452E-2</v>
       </c>
     </row>
@@ -2058,50 +2060,50 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="I29" s="4">
-        <f>IF(C29,D29/C29-1,"")</f>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="J29" s="4">
-        <f>IF(D29,E29/D29-1,"")</f>
+        <f t="shared" si="20"/>
         <v>-1</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f>IF(E29,F29/E29-1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.5</v>
       </c>
       <c r="P29" s="4">
-        <f>D29/D$47</f>
+        <f t="shared" si="24"/>
         <v>0.17952427637277391</v>
       </c>
       <c r="Q29" s="4">
-        <f>E29/E$47</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R29" s="4">
-        <f>F29/F$47</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5.9841425457591302E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="5"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2109,113 +2111,113 @@
       <c r="T30" s="10"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="13" t="s">
+      <c r="J31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="13" t="s">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R31" s="13" t="s">
+      <c r="Q31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13" t="s">
+      <c r="S31" s="12"/>
+      <c r="T31" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="17">
+      <c r="B32" s="21"/>
+      <c r="C32" s="16">
         <f>SUM(C33:C38)</f>
         <v>742885</v>
       </c>
-      <c r="D32" s="17">
-        <f t="shared" ref="D32:F32" si="18">SUM(D33:D38)</f>
+      <c r="D32" s="16">
+        <f t="shared" ref="D32:F32" si="28">SUM(D33:D38)</f>
         <v>742256</v>
       </c>
-      <c r="E32" s="17">
-        <f t="shared" si="18"/>
+      <c r="E32" s="16">
+        <f t="shared" si="28"/>
         <v>742256</v>
       </c>
-      <c r="F32" s="17">
-        <f t="shared" si="18"/>
+      <c r="F32" s="16">
+        <f t="shared" si="28"/>
         <v>742256</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="18">
-        <f>IF(C32,D32/C32-1,"")</f>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="17">
+        <f t="shared" ref="I32:K38" si="29">IF(C32,D32/C32-1,"")</f>
         <v>-8.4669901801759373E-4</v>
       </c>
-      <c r="J32" s="18">
-        <f>IF(D32,E32/D32-1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="18">
-        <f>IF(E32,F32/E32-1,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19">
-        <f t="shared" ref="M32:M33" si="19">IFERROR(AVERAGE(I32:K32),"")</f>
+      <c r="J32" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="17">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18">
+        <f t="shared" ref="M32:M33" si="30">IFERROR(AVERAGE(I32:K32),"")</f>
         <v>-2.8223300600586459E-4</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="18">
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="17">
         <f>SUM(P33:P38)</f>
         <v>1</v>
       </c>
-      <c r="Q32" s="18">
-        <f t="shared" ref="Q32:T32" si="20">SUM(Q33:Q38)</f>
+      <c r="Q32" s="17">
+        <f t="shared" ref="Q32:T32" si="31">SUM(Q33:Q38)</f>
         <v>1</v>
       </c>
-      <c r="R32" s="18">
-        <f t="shared" si="20"/>
+      <c r="R32" s="17">
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="S32" s="18">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="18">
-        <f t="shared" si="20"/>
+      <c r="S32" s="17">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="17">
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
@@ -2236,32 +2238,32 @@
         <v>146593</v>
       </c>
       <c r="I33" s="4">
-        <f>IF(C33,D33/C33-1,"")</f>
+        <f t="shared" si="29"/>
         <v>4.2127862256250648E-2</v>
       </c>
       <c r="J33" s="4">
-        <f>IF(D33,E33/D33-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K33" s="4">
-        <f>IF(E33,F33/E33-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="30"/>
         <v>1.4042620752083549E-2</v>
       </c>
       <c r="P33" s="4">
-        <f>D33/D$48</f>
+        <f t="shared" ref="P33:R38" si="32">D33/D$48</f>
         <v>0.19749655105516156</v>
       </c>
       <c r="Q33" s="4">
-        <f>E33/E$48</f>
+        <f t="shared" si="32"/>
         <v>0.19749655105516156</v>
       </c>
       <c r="R33" s="4">
-        <f>F33/F$48</f>
+        <f t="shared" si="32"/>
         <v>0.19749655105516156</v>
       </c>
       <c r="S33" s="4"/>
@@ -2287,32 +2289,32 @@
         <v>98134</v>
       </c>
       <c r="I34" s="4">
-        <f>IF(C34,D34/C34-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <f>IF(D34,E34/D34-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K34" s="4">
-        <f>IF(E34,F34/E34-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="5">
-        <f t="shared" ref="M34:M38" si="21">IFERROR(AVERAGE(I34:K34),"")</f>
+        <f t="shared" ref="M34:M38" si="33">IFERROR(AVERAGE(I34:K34),"")</f>
         <v>0</v>
       </c>
       <c r="P34" s="4">
-        <f>D34/D$48</f>
+        <f t="shared" si="32"/>
         <v>0.13221045030286047</v>
       </c>
       <c r="Q34" s="4">
-        <f>E34/E$48</f>
+        <f t="shared" si="32"/>
         <v>0.13221045030286047</v>
       </c>
       <c r="R34" s="4">
-        <f>F34/F$48</f>
+        <f t="shared" si="32"/>
         <v>0.13221045030286047</v>
       </c>
       <c r="S34" s="4"/>
@@ -2338,32 +2340,32 @@
         <v>227559</v>
       </c>
       <c r="I35" s="4">
-        <f>IF(C35,D35/C35-1,"")</f>
+        <f t="shared" si="29"/>
         <v>2.2329686591617826E-3</v>
       </c>
       <c r="J35" s="4">
-        <f>IF(D35,E35/D35-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K35" s="4">
-        <f>IF(E35,F35/E35-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>7.4432288638726085E-4</v>
       </c>
       <c r="P35" s="4">
-        <f>D35/D$48</f>
+        <f t="shared" si="32"/>
         <v>0.30657751503524389</v>
       </c>
       <c r="Q35" s="4">
-        <f>E35/E$48</f>
+        <f t="shared" si="32"/>
         <v>0.30657751503524389</v>
       </c>
       <c r="R35" s="4">
-        <f>F35/F$48</f>
+        <f t="shared" si="32"/>
         <v>0.30657751503524389</v>
       </c>
       <c r="S35" s="4"/>
@@ -2389,37 +2391,37 @@
         <v>43263</v>
       </c>
       <c r="I36" s="4">
-        <f>IF(C36,D36/C36-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0.61991238252143632</v>
       </c>
       <c r="J36" s="4">
-        <f>IF(D36,E36/D36-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K36" s="4">
-        <f>IF(E36,F36/E36-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.20663746084047876</v>
       </c>
       <c r="P36" s="4">
-        <f>D36/D$48</f>
+        <f t="shared" si="32"/>
         <v>5.8285820525532966E-2</v>
       </c>
       <c r="Q36" s="4">
-        <f>E36/E$48</f>
+        <f t="shared" si="32"/>
         <v>5.8285820525532966E-2</v>
       </c>
       <c r="R36" s="4">
-        <f>F36/F$48</f>
+        <f t="shared" si="32"/>
         <v>5.8285820525532966E-2</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="5">
-        <f t="shared" ref="T36:T38" si="22">AVERAGE(P36:R36)</f>
+        <f t="shared" ref="T36:T38" si="34">AVERAGE(P36:R36)</f>
         <v>5.8285820525532966E-2</v>
       </c>
     </row>
@@ -2440,37 +2442,37 @@
         <v>26707</v>
       </c>
       <c r="I37" s="4">
-        <f>IF(C37,D37/C37-1,"")</f>
+        <f t="shared" si="29"/>
         <v>-0.46930948832588182</v>
       </c>
       <c r="J37" s="4">
-        <f>IF(D37,E37/D37-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K37" s="4">
-        <f>IF(E37,F37/E37-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-0.15643649610862728</v>
       </c>
       <c r="P37" s="4">
-        <f>D37/D$48</f>
+        <f t="shared" si="32"/>
         <v>3.5980847578194045E-2</v>
       </c>
       <c r="Q37" s="4">
-        <f>E37/E$48</f>
+        <f t="shared" si="32"/>
         <v>3.5980847578194045E-2</v>
       </c>
       <c r="R37" s="4">
-        <f>F37/F$48</f>
+        <f t="shared" si="32"/>
         <v>3.5980847578194045E-2</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>3.5980847578194045E-2</v>
       </c>
     </row>
@@ -2491,37 +2493,37 @@
         <v>200000</v>
       </c>
       <c r="I38" s="4">
-        <f>IF(C38,D38/C38-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <f>IF(D38,E38/D38-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <f>IF(E38,F38/E38-1,"")</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P38" s="4">
-        <f>D38/D$48</f>
+        <f t="shared" si="32"/>
         <v>0.26944881550300703</v>
       </c>
       <c r="Q38" s="4">
-        <f>E38/E$48</f>
+        <f t="shared" si="32"/>
         <v>0.26944881550300703</v>
       </c>
       <c r="R38" s="4">
-        <f>F38/F$48</f>
+        <f t="shared" si="32"/>
         <v>0.26944881550300703</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.26944881550300703</v>
       </c>
     </row>
@@ -2542,109 +2544,109 @@
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="13" t="s">
+      <c r="E40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="13" t="s">
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K40" s="13" t="s">
+      <c r="J40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13" t="s">
+      <c r="L40" s="12"/>
+      <c r="M40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="13" t="s">
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="13" t="s">
+      <c r="Q40" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13" t="s">
+      <c r="S40" s="12"/>
+      <c r="T40" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="22">
         <f>+C2+C11+C24+C32</f>
         <v>6439465</v>
       </c>
-      <c r="D41" s="25">
-        <f t="shared" ref="D41:F41" si="23">+D2+D11+D24+D32</f>
+      <c r="D41" s="22">
+        <f t="shared" ref="D41:F41" si="35">+D2+D11+D24+D32</f>
         <v>7006379</v>
       </c>
-      <c r="E41" s="25">
-        <f t="shared" si="23"/>
+      <c r="E41" s="22">
+        <f t="shared" si="35"/>
         <v>6800566</v>
       </c>
-      <c r="F41" s="25">
-        <f t="shared" si="23"/>
+      <c r="F41" s="22">
+        <f t="shared" si="35"/>
         <v>7757626</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="26">
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="23">
         <f>+D41/C41-1</f>
         <v>8.8037437892744208E-2</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="23">
         <f>+E41/D41-1</f>
         <v>-2.9375088044766073E-2</v>
       </c>
-      <c r="K41" s="26">
+      <c r="K41" s="23">
         <f>+F41/E41-1</f>
         <v>0.14073240374404139</v>
       </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="27">
+      <c r="L41" s="23"/>
+      <c r="M41" s="24">
         <f>AVERAGE(I41:K41)</f>
         <v>6.6464917864006504E-2</v>
       </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="26">
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="23">
         <f>D41/D41</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="23">
         <f>E41/E41</f>
         <v>1</v>
       </c>
-      <c r="R41" s="26">
+      <c r="R41" s="23">
         <f>F41/F41</f>
         <v>1</v>
       </c>
-      <c r="S41" s="26"/>
-      <c r="T41" s="27">
+      <c r="S41" s="23"/>
+      <c r="T41" s="24">
         <f>AVERAGE(P41:R41)</f>
         <v>1</v>
       </c>
@@ -2666,108 +2668,108 @@
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="13" t="s">
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K43" s="13" t="s">
+      <c r="J43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13" t="s">
+      <c r="L43" s="12"/>
+      <c r="M43" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="13" t="s">
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q43" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R43" s="13" t="s">
+      <c r="Q43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13" t="s">
+      <c r="S43" s="12"/>
+      <c r="T43" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="11"/>
-      <c r="C45" s="31">
+      <c r="C45" s="2">
         <f>SUM(C3:C8)</f>
         <v>2873425</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="2">
         <f>SUM(D3:D8)</f>
         <v>3075148</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="2">
         <f>SUM(E3:E8)</f>
         <v>3345618</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="2">
         <f>SUM(F3:F8)</f>
         <v>3692042</v>
       </c>
       <c r="I45" s="4">
-        <f>+D45/C45-1</f>
+        <f t="shared" ref="I45:K48" si="36">+D45/C45-1</f>
         <v>7.0202980763374612E-2</v>
       </c>
       <c r="J45" s="4">
-        <f>+E45/D45-1</f>
+        <f t="shared" si="36"/>
         <v>8.7953490368593679E-2</v>
       </c>
       <c r="K45" s="4">
-        <f>+F45/E45-1</f>
+        <f t="shared" si="36"/>
         <v>0.10354559307129496</v>
       </c>
       <c r="L45" s="4"/>
@@ -2776,15 +2778,15 @@
         <v>8.7234021401087755E-2</v>
       </c>
       <c r="P45" s="4">
-        <f>D45/$D$41</f>
+        <f t="shared" ref="P45:R48" si="37">D45/$D$41</f>
         <v>0.43890688756631635</v>
       </c>
       <c r="Q45" s="4">
-        <f>E45/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.47751028027458975</v>
       </c>
       <c r="R45" s="4">
-        <f>F45/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.52695436544326246</v>
       </c>
       <c r="S45" s="4"/>
@@ -2814,37 +2816,37 @@
         <v>2891578</v>
       </c>
       <c r="I46" s="4">
-        <f>+D46/C46-1</f>
+        <f t="shared" si="36"/>
         <v>0.11378674195415184</v>
       </c>
       <c r="J46" s="4">
-        <f>+E46/D46-1</f>
+        <f t="shared" si="36"/>
         <v>-7.5451538666576612E-2</v>
       </c>
       <c r="K46" s="4">
-        <f>+F46/E46-1</f>
+        <f t="shared" si="36"/>
         <v>0.17415332489811952</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="5">
-        <f t="shared" ref="M46:M48" si="24">AVERAGE(I46:K46)</f>
+        <f t="shared" ref="M46:M48" si="38">AVERAGE(I46:K46)</f>
         <v>7.0829509395231582E-2</v>
       </c>
       <c r="P46" s="4">
-        <f>D46/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.38017783508428532</v>
       </c>
       <c r="Q46" s="4">
-        <f>E46/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.35149283246024798</v>
       </c>
       <c r="R46" s="4">
-        <f>F46/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.41270647791105791</v>
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="5">
-        <f t="shared" ref="T46:T48" si="25">AVERAGE(P46:R46)</f>
+        <f t="shared" ref="T46:T48" si="39">AVERAGE(P46:R46)</f>
         <v>0.38145904848519702</v>
       </c>
     </row>
@@ -2869,37 +2871,37 @@
         <v>431750</v>
       </c>
       <c r="I47" s="4">
-        <f>+D47/C47-1</f>
+        <f t="shared" si="36"/>
         <v>0.21707973151750082</v>
       </c>
       <c r="J47" s="4">
-        <f>+E47/D47-1</f>
+        <f t="shared" si="36"/>
         <v>-0.524086007176783</v>
       </c>
       <c r="K47" s="4">
-        <f>+F47/E47-1</f>
+        <f t="shared" si="36"/>
         <v>0.72700000000000009</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>0.13999790811357263</v>
       </c>
       <c r="P47" s="4">
-        <f>D47/$D$41</f>
+        <f t="shared" si="37"/>
         <v>7.4975247556548108E-2</v>
       </c>
       <c r="Q47" s="4">
-        <f>E47/$D$41</f>
+        <f t="shared" si="37"/>
         <v>3.5681769427545952E-2</v>
       </c>
       <c r="R47" s="4">
-        <f>F47/$D$41</f>
+        <f t="shared" si="37"/>
         <v>6.1622415801371865E-2</v>
       </c>
       <c r="S47" s="4"/>
       <c r="T47" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>5.7426477595155311E-2</v>
       </c>
     </row>
@@ -2924,37 +2926,37 @@
         <v>742256</v>
       </c>
       <c r="I48" s="4">
-        <f>+D48/C48-1</f>
+        <f t="shared" si="36"/>
         <v>-8.4669901801759373E-4</v>
       </c>
       <c r="J48" s="4">
-        <f>+E48/D48-1</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="K48" s="4">
-        <f>+F48/E48-1</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>-2.8223300600586459E-4</v>
       </c>
       <c r="P48" s="4">
-        <f>D48/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.10594002979285021</v>
       </c>
       <c r="Q48" s="4">
-        <f>E48/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.10594002979285021</v>
       </c>
       <c r="R48" s="4">
-        <f>F48/$D$41</f>
+        <f t="shared" si="37"/>
         <v>0.10594002979285021</v>
       </c>
       <c r="S48" s="4"/>
       <c r="T48" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>0.10594002979285021</v>
       </c>
     </row>
@@ -2996,7 +2998,7 @@
       <c r="A51" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="28">
         <v>1000</v>
       </c>
       <c r="D51" t="s">
@@ -3016,20 +3018,20 @@
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="13" t="s">
+      <c r="B52" s="13"/>
+      <c r="C52" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="E52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I52" s="4"/>
@@ -3044,24 +3046,24 @@
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="str">
+      <c r="A53" s="20" t="str">
         <f>A41</f>
         <v>Total</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="25">
+      <c r="B53" s="20"/>
+      <c r="C53" s="22">
         <f>C41/$B$51</f>
         <v>6439.4650000000001</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="22">
         <f>D41/$B$51</f>
         <v>7006.3789999999999</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="22">
         <f>E41/$B$51</f>
         <v>6800.5659999999998</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="22">
         <f>F41/$B$51</f>
         <v>7757.6260000000002</v>
       </c>
@@ -3073,19 +3075,19 @@
         <v>Seguridad</v>
       </c>
       <c r="C54" s="2">
-        <f>C45/$B$51</f>
+        <f t="shared" ref="C54:F57" si="40">C45/$B$51</f>
         <v>2873.4250000000002</v>
       </c>
       <c r="D54" s="2">
-        <f>D45/$B$51</f>
+        <f t="shared" si="40"/>
         <v>3075.1480000000001</v>
       </c>
       <c r="E54" s="2">
-        <f>E45/$B$51</f>
+        <f t="shared" si="40"/>
         <v>3345.6179999999999</v>
       </c>
       <c r="F54" s="2">
-        <f>F45/$B$51</f>
+        <f t="shared" si="40"/>
         <v>3692.0419999999999</v>
       </c>
       <c r="M54" s="4"/>
@@ -3096,19 +3098,19 @@
         <v>Mantenimiento Espacios Verdes y Reparaciones</v>
       </c>
       <c r="C55" s="2">
-        <f>C46/$B$51</f>
+        <f t="shared" si="40"/>
         <v>2391.5439999999999</v>
       </c>
       <c r="D55" s="2">
-        <f>D46/$B$51</f>
+        <f t="shared" si="40"/>
         <v>2663.67</v>
       </c>
       <c r="E55" s="2">
-        <f>E46/$B$51</f>
+        <f t="shared" si="40"/>
         <v>2462.692</v>
       </c>
       <c r="F55" s="2">
-        <f>F46/$B$51</f>
+        <f t="shared" si="40"/>
         <v>2891.578</v>
       </c>
       <c r="M55" s="4"/>
@@ -3119,19 +3121,19 @@
         <v>Servicios e Impuestos</v>
       </c>
       <c r="C56" s="2">
-        <f>C47/$B$51</f>
+        <f t="shared" si="40"/>
         <v>431.61099999999999</v>
       </c>
       <c r="D56" s="2">
-        <f>D47/$B$51</f>
+        <f t="shared" si="40"/>
         <v>525.30499999999995</v>
       </c>
       <c r="E56" s="2">
-        <f>E47/$B$51</f>
+        <f t="shared" si="40"/>
         <v>250</v>
       </c>
       <c r="F56" s="2">
-        <f>F47/$B$51</f>
+        <f t="shared" si="40"/>
         <v>431.75</v>
       </c>
       <c r="M56" s="4"/>
@@ -3142,198 +3144,198 @@
         <v>Gastos Administración</v>
       </c>
       <c r="C57" s="2">
-        <f>C48/$B$51</f>
+        <f t="shared" si="40"/>
         <v>742.88499999999999</v>
       </c>
       <c r="D57" s="2">
-        <f>D48/$B$51</f>
+        <f t="shared" si="40"/>
         <v>742.25599999999997</v>
       </c>
       <c r="E57" s="2">
-        <f>E48/$B$51</f>
+        <f t="shared" si="40"/>
         <v>742.25599999999997</v>
       </c>
       <c r="F57" s="2">
-        <f>F48/$B$51</f>
+        <f t="shared" si="40"/>
         <v>742.25599999999997</v>
       </c>
       <c r="M57" s="4"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="str">
+      <c r="A59" s="13" t="str">
         <f>A1</f>
         <v>Seguridad</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="13" t="str">
+      <c r="B59" s="13"/>
+      <c r="C59" s="12" t="str">
         <f>C1</f>
         <v>Abril (P)</v>
       </c>
-      <c r="D59" s="13" t="str">
+      <c r="D59" s="12" t="str">
         <f>D1</f>
         <v>Abril ®</v>
       </c>
-      <c r="E59" s="13" t="str">
+      <c r="E59" s="12" t="str">
         <f>E1</f>
         <v>May</v>
       </c>
-      <c r="F59" s="13" t="str">
+      <c r="F59" s="12" t="str">
         <f>F1</f>
         <v>Junio</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="str">
+      <c r="A60" s="14" t="str">
         <f>A2</f>
         <v>Seguridad</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17">
+      <c r="B60" s="15"/>
+      <c r="C60" s="16">
         <f>SUM(C61:C66)</f>
         <v>2873.4250000000002</v>
       </c>
-      <c r="D60" s="17">
-        <f t="shared" ref="D60:F60" si="26">SUM(D61:D66)</f>
+      <c r="D60" s="16">
+        <f t="shared" ref="D60:F60" si="41">SUM(D61:D66)</f>
         <v>3075.1480000000001</v>
       </c>
-      <c r="E60" s="17">
-        <f t="shared" si="26"/>
+      <c r="E60" s="16">
+        <f t="shared" si="41"/>
         <v>3345.6179999999999</v>
       </c>
-      <c r="F60" s="17">
-        <f t="shared" si="26"/>
+      <c r="F60" s="16">
+        <f t="shared" si="41"/>
         <v>3692.0419999999999</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" t="str">
-        <f>B3</f>
+        <f t="shared" ref="B61:B66" si="42">B3</f>
         <v>2 Guardia 24hs</v>
       </c>
       <c r="C61" s="2">
-        <f>C3/$B$51</f>
+        <f t="shared" ref="C61:F66" si="43">C3/$B$51</f>
         <v>2514.6669999999999</v>
       </c>
       <c r="D61" s="2">
-        <f>D3/$B$51</f>
+        <f t="shared" si="43"/>
         <v>2911.0340000000001</v>
       </c>
       <c r="E61" s="2">
-        <f>E3/$B$51</f>
+        <f t="shared" si="43"/>
         <v>2911.0340000000001</v>
       </c>
       <c r="F61" s="2">
-        <f>F3/$B$51</f>
+        <f t="shared" si="43"/>
         <v>3260.3580000000002</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" t="str">
-        <f>B4</f>
+        <f t="shared" si="42"/>
         <v>Rondin Interno + Moto 12hs</v>
       </c>
       <c r="C62" s="2">
-        <f>C4/$B$51</f>
+        <f t="shared" si="43"/>
         <v>66.900000000000006</v>
       </c>
       <c r="D62" s="2">
-        <f>D4/$B$51</f>
+        <f t="shared" si="43"/>
         <v>66.900000000000006</v>
       </c>
       <c r="E62" s="2">
-        <f>E4/$B$51</f>
+        <f t="shared" si="43"/>
         <v>66.900000000000006</v>
       </c>
       <c r="F62" s="2">
-        <f>F4/$B$51</f>
+        <f t="shared" si="43"/>
         <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="str">
-        <f>B5</f>
+        <f t="shared" si="42"/>
         <v>Equipos de contror de velocldad Conuol cle lngreso Net Key</v>
       </c>
       <c r="C63" s="2">
-        <f>C5/$B$51</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="D63" s="2">
-        <f>D5/$B$51</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E63" s="2">
-        <f>E5/$B$51</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F63" s="2">
-        <f>F5/$B$51</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" t="str">
-        <f>B6</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Control cle lngreso Net Key </v>
       </c>
       <c r="C64" s="2">
-        <f>C6/$B$51</f>
+        <f t="shared" si="43"/>
         <v>54.857999999999997</v>
       </c>
       <c r="D64" s="2">
-        <f>D6/$B$51</f>
+        <f t="shared" si="43"/>
         <v>67.213999999999999</v>
       </c>
       <c r="E64" s="2">
-        <f>E6/$B$51</f>
+        <f t="shared" si="43"/>
         <v>67.213999999999999</v>
       </c>
       <c r="F64" s="2">
-        <f>F6/$B$51</f>
+        <f t="shared" si="43"/>
         <v>67.213999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="str">
-        <f>B7</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">Otros Gastos en Personal </v>
       </c>
       <c r="C65" s="2">
-        <f>C7/$B$51</f>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="D65" s="2">
-        <f>D7/$B$51</f>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="E65" s="2">
-        <f>E7/$B$51</f>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="F65" s="2">
-        <f>F7/$B$51</f>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="str">
-        <f>B8</f>
+        <f t="shared" si="42"/>
         <v>Seguridad Electronica</v>
       </c>
       <c r="C66" s="2">
-        <f>C8/$B$51</f>
+        <f t="shared" si="43"/>
         <v>207</v>
       </c>
       <c r="D66" s="2">
-        <f>D8/$B$51</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E66" s="2">
-        <f>E8/$B$51</f>
+        <f t="shared" si="43"/>
         <v>250.47</v>
       </c>
       <c r="F66" s="2">
-        <f>F8/$B$51</f>
+        <f t="shared" si="43"/>
         <v>250.47</v>
       </c>
     </row>
@@ -3343,268 +3345,268 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="str">
+      <c r="A68" s="13" t="str">
         <f>A10</f>
         <v>Mantenimiento</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13" t="str">
+      <c r="B68" s="13"/>
+      <c r="C68" s="12" t="str">
         <f>C10</f>
         <v>Abril (P)</v>
       </c>
-      <c r="D68" s="13" t="str">
+      <c r="D68" s="12" t="str">
         <f>D10</f>
         <v>Abril ®</v>
       </c>
-      <c r="E68" s="13" t="str">
+      <c r="E68" s="12" t="str">
         <f>E10</f>
         <v>May</v>
       </c>
-      <c r="F68" s="13" t="str">
+      <c r="F68" s="12" t="str">
         <f>F10</f>
         <v>Junio</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="15" t="str">
+      <c r="A69" s="14" t="str">
         <f>A11</f>
         <v>Mantenimiento Espacios Verdes y Reparaciones</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17">
+      <c r="B69" s="15"/>
+      <c r="C69" s="16">
         <f>SUM(C70:C79)</f>
         <v>2391.5439999999999</v>
       </c>
-      <c r="D69" s="17">
-        <f t="shared" ref="D69:F69" si="27">SUM(D70:D79)</f>
+      <c r="D69" s="16">
+        <f t="shared" ref="D69:F69" si="44">SUM(D70:D79)</f>
         <v>2663.67</v>
       </c>
-      <c r="E69" s="17">
-        <f t="shared" si="27"/>
+      <c r="E69" s="16">
+        <f t="shared" si="44"/>
         <v>2462.692</v>
       </c>
-      <c r="F69" s="17">
-        <f t="shared" si="27"/>
+      <c r="F69" s="16">
+        <f t="shared" si="44"/>
         <v>2891.5779999999995</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="str">
-        <f>B12</f>
+        <f t="shared" ref="B70:B79" si="45">B12</f>
         <v>Servicio de Limpieza Espacios Comunes</v>
       </c>
       <c r="C70" s="2">
-        <f>C12/$B$51</f>
+        <f t="shared" ref="C70:F79" si="46">C12/$B$51</f>
         <v>1379.1179999999999</v>
       </c>
       <c r="D70" s="2">
-        <f>D12/$B$51</f>
+        <f t="shared" si="46"/>
         <v>1362.4639999999999</v>
       </c>
       <c r="E70" s="2">
-        <f>E12/$B$51</f>
+        <f t="shared" si="46"/>
         <v>1498.71</v>
       </c>
       <c r="F70" s="2">
-        <f>F12/$B$51</f>
+        <f t="shared" si="46"/>
         <v>1648.5809999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="str">
-        <f>B13</f>
+        <f t="shared" si="45"/>
         <v>Ing Agronoma</v>
       </c>
       <c r="C71" s="2">
-        <f>C13/$B$51</f>
+        <f t="shared" si="46"/>
         <v>29.4</v>
       </c>
       <c r="D71" s="2">
-        <f>D13/$B$51</f>
+        <f t="shared" si="46"/>
         <v>60</v>
       </c>
       <c r="E71" s="2">
-        <f>E13/$B$51</f>
+        <f t="shared" si="46"/>
         <v>60</v>
       </c>
       <c r="F71" s="2">
-        <f>F13/$B$51</f>
+        <f t="shared" si="46"/>
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="str">
-        <f>B14</f>
+        <f t="shared" si="45"/>
         <v>Insumos Mantenimiento</v>
       </c>
       <c r="C72" s="2">
-        <f>C14/$B$51</f>
+        <f t="shared" si="46"/>
         <v>200</v>
       </c>
       <c r="D72" s="2">
-        <f>D14/$B$51</f>
+        <f t="shared" si="46"/>
         <v>578.46600000000001</v>
       </c>
       <c r="E72" s="2">
-        <f>E14/$B$51</f>
+        <f t="shared" si="46"/>
         <v>200</v>
       </c>
       <c r="F72" s="2">
-        <f>F14/$B$51</f>
+        <f t="shared" si="46"/>
         <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="str">
-        <f>B15</f>
+        <f t="shared" si="45"/>
         <v>Itendencia</v>
       </c>
       <c r="C73" s="2">
-        <f>C15/$B$51</f>
+        <f t="shared" si="46"/>
         <v>260.05900000000003</v>
       </c>
       <c r="D73" s="2">
-        <f>D15/$B$51</f>
+        <f t="shared" si="46"/>
         <v>202.13800000000001</v>
       </c>
       <c r="E73" s="2">
-        <f>E15/$B$51</f>
+        <f t="shared" si="46"/>
         <v>242.58600000000001</v>
       </c>
       <c r="F73" s="2">
-        <f>F15/$B$51</f>
+        <f t="shared" si="46"/>
         <v>257.12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="str">
-        <f>B16</f>
+        <f t="shared" si="45"/>
         <v>Personal con mas de una tarea</v>
       </c>
       <c r="C74" s="2">
-        <f>C16/$B$51</f>
+        <f t="shared" si="46"/>
         <v>162.65600000000001</v>
       </c>
       <c r="D74" s="2">
-        <f>D16/$B$51</f>
+        <f t="shared" si="46"/>
         <v>117.44</v>
       </c>
       <c r="E74" s="2">
-        <f>E16/$B$51</f>
+        <f t="shared" si="46"/>
         <v>140.928</v>
       </c>
       <c r="F74" s="2">
-        <f>F16/$B$51</f>
+        <f t="shared" si="46"/>
         <v>149.38300000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="str">
-        <f>B17</f>
+        <f t="shared" si="45"/>
         <v>Personal Mantenimiento 5°</v>
       </c>
       <c r="C75" s="2">
-        <f>C17/$B$51</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="D75" s="2">
-        <f>D17/$B$51</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E75" s="2">
-        <f>E17/$B$51</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F75" s="2">
-        <f>F17/$B$51</f>
+        <f t="shared" si="46"/>
         <v>149.38300000000001</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="str">
-        <f>B18</f>
+        <f t="shared" si="45"/>
         <v>931 -Surteh</v>
       </c>
       <c r="C76" s="2">
-        <f>C18/$B$51</f>
+        <f t="shared" si="46"/>
         <v>253.946</v>
       </c>
       <c r="D76" s="2">
-        <f>D18/$B$51</f>
+        <f t="shared" si="46"/>
         <v>183.48500000000001</v>
       </c>
       <c r="E76" s="2">
-        <f>E18/$B$51</f>
+        <f t="shared" si="46"/>
         <v>220.18199999999999</v>
       </c>
       <c r="F76" s="2">
-        <f>F18/$B$51</f>
+        <f t="shared" si="46"/>
         <v>316.85599999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" t="str">
-        <f>B19</f>
+        <f t="shared" si="45"/>
         <v>Provisión por Despido</v>
       </c>
       <c r="C77" s="2">
-        <f>C19/$B$51</f>
+        <f t="shared" si="46"/>
         <v>56.365000000000002</v>
       </c>
       <c r="D77" s="2">
-        <f>D19/$B$51</f>
+        <f t="shared" si="46"/>
         <v>41.905000000000001</v>
       </c>
       <c r="E77" s="2">
-        <f>E19/$B$51</f>
+        <f t="shared" si="46"/>
         <v>50.286000000000001</v>
       </c>
       <c r="F77" s="2">
-        <f>F19/$B$51</f>
+        <f t="shared" si="46"/>
         <v>60.255000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" t="str">
-        <f>B20</f>
+        <f t="shared" si="45"/>
         <v xml:space="preserve">Otros Gastos en Personal </v>
       </c>
       <c r="C78" s="2">
-        <f>C20/$B$51</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="D78" s="2">
-        <f>D20/$B$51</f>
+        <f t="shared" si="46"/>
         <v>67.772000000000006</v>
       </c>
       <c r="E78" s="2">
-        <f>E20/$B$51</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F78" s="2">
-        <f>F20/$B$51</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79" t="str">
-        <f>B21</f>
+        <f t="shared" si="45"/>
         <v>Reparaciones menores estimadas</v>
       </c>
       <c r="C79" s="2">
-        <f>C21/$B$51</f>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="D79" s="2">
-        <f>D21/$B$51</f>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="E79" s="2">
-        <f>E21/$B$51</f>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
       <c r="F79" s="2">
-        <f>F21/$B$51</f>
+        <f t="shared" si="46"/>
         <v>50</v>
       </c>
     </row>
@@ -3614,48 +3616,48 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="str">
+      <c r="A81" s="13" t="str">
         <f>A23</f>
         <v>Servicios/Impuestos</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="13" t="str">
+      <c r="B81" s="13"/>
+      <c r="C81" s="12" t="str">
         <f>C23</f>
         <v>Abril (P)</v>
       </c>
-      <c r="D81" s="13" t="str">
+      <c r="D81" s="12" t="str">
         <f>D23</f>
         <v>Abril ®</v>
       </c>
-      <c r="E81" s="13" t="str">
+      <c r="E81" s="12" t="str">
         <f>E23</f>
         <v>May</v>
       </c>
-      <c r="F81" s="13" t="str">
+      <c r="F81" s="12" t="str">
         <f>F23</f>
         <v>Junio</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="str">
+      <c r="A82" s="14" t="str">
         <f>A24</f>
         <v>Servicios e Impuestos</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="17">
+      <c r="B82" s="15"/>
+      <c r="C82" s="16">
         <f>SUM(C83:C87)</f>
         <v>431.61099999999999</v>
       </c>
-      <c r="D82" s="17">
-        <f t="shared" ref="D82:F82" si="28">SUM(D83:D87)</f>
+      <c r="D82" s="16">
+        <f t="shared" ref="D82:F82" si="47">SUM(D83:D87)</f>
         <v>525.30500000000006</v>
       </c>
-      <c r="E82" s="17">
-        <f t="shared" si="28"/>
+      <c r="E82" s="16">
+        <f t="shared" si="47"/>
         <v>250</v>
       </c>
-      <c r="F82" s="17">
-        <f t="shared" si="28"/>
+      <c r="F82" s="16">
+        <f t="shared" si="47"/>
         <v>431.75</v>
       </c>
     </row>
@@ -3665,19 +3667,19 @@
         <v>Edemsa</v>
       </c>
       <c r="C83" s="2">
-        <f>C25/$B$51</f>
+        <f t="shared" ref="C83:F87" si="48">C25/$B$51</f>
         <v>220</v>
       </c>
       <c r="D83" s="2">
-        <f>D25/$B$51</f>
+        <f t="shared" si="48"/>
         <v>220</v>
       </c>
       <c r="E83" s="2">
-        <f>E25/$B$51</f>
+        <f t="shared" si="48"/>
         <v>220</v>
       </c>
       <c r="F83" s="2">
-        <f>F25/$B$51</f>
+        <f t="shared" si="48"/>
         <v>220</v>
       </c>
     </row>
@@ -3687,19 +3689,19 @@
         <v>Impuesto Imbobiliario</v>
       </c>
       <c r="C84" s="2">
-        <f>C26/$B$51</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D84" s="2">
-        <f>D26/$B$51</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E84" s="2">
-        <f>E26/$B$51</f>
+        <f t="shared" si="48"/>
         <v>25</v>
       </c>
       <c r="F84" s="2">
-        <f>F26/$B$51</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -3709,19 +3711,19 @@
         <v>Irrigación Callejon Comunero</v>
       </c>
       <c r="C85" s="2">
-        <f>C27/$B$51</f>
+        <f t="shared" si="48"/>
         <v>187</v>
       </c>
       <c r="D85" s="2">
-        <f>D27/$B$51</f>
+        <f t="shared" si="48"/>
         <v>206</v>
       </c>
       <c r="E85" s="2">
-        <f>E27/$B$51</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F85" s="2">
-        <f>F27/$B$51</f>
+        <f t="shared" si="48"/>
         <v>206</v>
       </c>
     </row>
@@ -3731,19 +3733,19 @@
         <v>Telefonía Comunicaciones</v>
       </c>
       <c r="C86" s="2">
-        <f>C28/$B$51</f>
+        <f t="shared" si="48"/>
         <v>5.75</v>
       </c>
       <c r="D86" s="2">
-        <f>D28/$B$51</f>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="E86" s="2">
-        <f>E28/$B$51</f>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="F86" s="2">
-        <f>F28/$B$51</f>
+        <f t="shared" si="48"/>
         <v>5.75</v>
       </c>
     </row>
@@ -3753,205 +3755,203 @@
         <v>Municipalidad</v>
       </c>
       <c r="C87" s="2">
-        <f>C29/$B$51</f>
+        <f t="shared" si="48"/>
         <v>18.861000000000001</v>
       </c>
       <c r="D87" s="2">
-        <f>D29/$B$51</f>
+        <f t="shared" si="48"/>
         <v>94.305000000000007</v>
       </c>
       <c r="E87" s="2">
-        <f>E29/$B$51</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F87" s="2">
-        <f>F29/$B$51</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="str">
+      <c r="A89" s="13" t="str">
         <f>A31</f>
         <v>Administración</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="13" t="str">
+      <c r="B89" s="13"/>
+      <c r="C89" s="12" t="str">
         <f>C31</f>
         <v>Abril (P)</v>
       </c>
-      <c r="D89" s="13" t="str">
+      <c r="D89" s="12" t="str">
         <f>D31</f>
         <v>Abril ®</v>
       </c>
-      <c r="E89" s="13" t="str">
+      <c r="E89" s="12" t="str">
         <f>E31</f>
         <v>May</v>
       </c>
-      <c r="F89" s="13" t="str">
+      <c r="F89" s="12" t="str">
         <f>F31</f>
         <v>Junio</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="str">
+      <c r="A90" s="20" t="str">
         <f>A32</f>
         <v>Gastos de Administración</v>
       </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="17">
+      <c r="B90" s="21"/>
+      <c r="C90" s="16">
         <f>SUM(C91:C96)</f>
         <v>742.88499999999999</v>
       </c>
-      <c r="D90" s="17">
-        <f t="shared" ref="D90:F90" si="29">SUM(D91:D96)</f>
+      <c r="D90" s="16">
+        <f t="shared" ref="D90:F90" si="49">SUM(D91:D96)</f>
         <v>742.25599999999997</v>
       </c>
-      <c r="E90" s="17">
-        <f t="shared" si="29"/>
+      <c r="E90" s="16">
+        <f t="shared" si="49"/>
         <v>742.25599999999997</v>
       </c>
-      <c r="F90" s="17">
-        <f t="shared" si="29"/>
+      <c r="F90" s="16">
+        <f t="shared" si="49"/>
         <v>742.25599999999997</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B91" t="str">
-        <f>B33</f>
+        <f t="shared" ref="B91:B96" si="50">B33</f>
         <v>Honorarios Administrativos</v>
       </c>
       <c r="C91" s="3">
-        <f>C33/$B$51</f>
+        <f t="shared" ref="C91:F96" si="51">C33/$B$51</f>
         <v>140.667</v>
       </c>
       <c r="D91" s="3">
-        <f>D33/$B$51</f>
+        <f t="shared" si="51"/>
         <v>146.59299999999999</v>
       </c>
       <c r="E91" s="3">
-        <f>E33/$B$51</f>
+        <f t="shared" si="51"/>
         <v>146.59299999999999</v>
       </c>
       <c r="F91" s="3">
-        <f>F33/$B$51</f>
+        <f t="shared" si="51"/>
         <v>146.59299999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="str">
-        <f>B34</f>
+        <f t="shared" si="50"/>
         <v>Honorarios Arquitectura</v>
       </c>
       <c r="C92" s="3">
-        <f>C34/$B$51</f>
+        <f t="shared" si="51"/>
         <v>98.134</v>
       </c>
       <c r="D92" s="3">
-        <f>D34/$B$51</f>
+        <f t="shared" si="51"/>
         <v>98.134</v>
       </c>
       <c r="E92" s="3">
-        <f>E34/$B$51</f>
+        <f t="shared" si="51"/>
         <v>98.134</v>
       </c>
       <c r="F92" s="3">
-        <f>F34/$B$51</f>
+        <f t="shared" si="51"/>
         <v>98.134</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B93" t="str">
-        <f>B35</f>
+        <f t="shared" si="50"/>
         <v>Gastos Bancarios - Plataforma</v>
       </c>
       <c r="C93" s="3">
-        <f>C35/$B$51</f>
+        <f t="shared" si="51"/>
         <v>227.05199999999999</v>
       </c>
       <c r="D93" s="3">
-        <f>D35/$B$51</f>
+        <f t="shared" si="51"/>
         <v>227.559</v>
       </c>
       <c r="E93" s="3">
-        <f>E35/$B$51</f>
+        <f t="shared" si="51"/>
         <v>227.559</v>
       </c>
       <c r="F93" s="3">
-        <f>F35/$B$51</f>
+        <f t="shared" si="51"/>
         <v>227.559</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B94" t="str">
-        <f>B36</f>
+        <f t="shared" si="50"/>
         <v>Seguro Integral de Consorcio</v>
       </c>
       <c r="C94" s="3">
-        <f>C36/$B$51</f>
+        <f t="shared" si="51"/>
         <v>26.707000000000001</v>
       </c>
       <c r="D94" s="3">
-        <f>D36/$B$51</f>
+        <f t="shared" si="51"/>
         <v>43.262999999999998</v>
       </c>
       <c r="E94" s="3">
-        <f>E36/$B$51</f>
+        <f t="shared" si="51"/>
         <v>43.262999999999998</v>
       </c>
       <c r="F94" s="3">
-        <f>F36/$B$51</f>
+        <f t="shared" si="51"/>
         <v>43.262999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B95" t="str">
-        <f>B37</f>
+        <f t="shared" si="50"/>
         <v>Simple Solutios</v>
       </c>
       <c r="C95" s="3">
-        <f>C37/$B$51</f>
+        <f t="shared" si="51"/>
         <v>50.325000000000003</v>
       </c>
       <c r="D95" s="3">
-        <f>D37/$B$51</f>
+        <f t="shared" si="51"/>
         <v>26.707000000000001</v>
       </c>
       <c r="E95" s="3">
-        <f>E37/$B$51</f>
+        <f t="shared" si="51"/>
         <v>26.707000000000001</v>
       </c>
       <c r="F95" s="3">
-        <f>F37/$B$51</f>
+        <f t="shared" si="51"/>
         <v>26.707000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B96" t="str">
-        <f>B38</f>
+        <f t="shared" si="50"/>
         <v>Otros (imprevistos y mora)</v>
       </c>
       <c r="C96" s="3">
-        <f>C38/$B$51</f>
+        <f t="shared" si="51"/>
         <v>200</v>
       </c>
       <c r="D96" s="3">
-        <f>D38/$B$51</f>
+        <f t="shared" si="51"/>
         <v>200</v>
       </c>
       <c r="E96" s="3">
-        <f>E38/$B$51</f>
+        <f t="shared" si="51"/>
         <v>200</v>
       </c>
       <c r="F96" s="3">
-        <f>F38/$B$51</f>
+        <f t="shared" si="51"/>
         <v>200</v>
       </c>
     </row>
@@ -3962,48 +3962,48 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="13" t="str">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="12" t="str">
         <f>C40</f>
         <v>Abril (P)</v>
       </c>
-      <c r="D98" s="13" t="str">
+      <c r="D98" s="12" t="str">
         <f>D40</f>
         <v>Abril ®</v>
       </c>
-      <c r="E98" s="13" t="str">
+      <c r="E98" s="12" t="str">
         <f>E40</f>
         <v>May</v>
       </c>
-      <c r="F98" s="13" t="str">
+      <c r="F98" s="12" t="str">
         <f>F40</f>
         <v>Junio</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="str">
+      <c r="A99" s="20" t="str">
         <f>A41</f>
         <v>Total</v>
       </c>
-      <c r="B99" s="23" t="str">
+      <c r="B99" s="20" t="str">
         <f>B41</f>
         <v>Gastos Totales</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="16">
         <f>+C60+C69+C82+C90</f>
         <v>6439.4650000000001</v>
       </c>
-      <c r="D99" s="17">
-        <f t="shared" ref="D99:F99" si="30">+D60+D69+D82+D90</f>
+      <c r="D99" s="16">
+        <f t="shared" ref="D99:F99" si="52">+D60+D69+D82+D90</f>
         <v>7006.3790000000008</v>
       </c>
-      <c r="E99" s="17">
-        <f t="shared" si="30"/>
+      <c r="E99" s="16">
+        <f t="shared" si="52"/>
         <v>6800.5659999999998</v>
       </c>
-      <c r="F99" s="17">
-        <f t="shared" si="30"/>
+      <c r="F99" s="16">
+        <f t="shared" si="52"/>
         <v>7757.6259999999993</v>
       </c>
     </row>
@@ -4013,13 +4013,17 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="M3:M8 M12:M21 M25:M29 M33:M38 M45:M52">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
-      <formula>"0.1"</formula>
-      <formula>"0.2"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I45:K52 I3:K8 I12:K21 I25:K29 I33:K38">
     <cfRule type="colorScale" priority="7">
       <colorScale>
@@ -4031,13 +4035,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="between">
       <formula>$Y$4</formula>
       <formula>$Z$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>$Y$4</formula>
       <formula>$Z$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M8 M12:M21 M25:M29 M33:M38 M45:M52">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
+      <formula>"0.1"</formula>
+      <formula>"0.2"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expensas Mayo.xlsx
+++ b/Expensas Mayo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Documents\GitHub\Tenis School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3FF4C-18B9-4980-B5A1-645E6D1EB3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1E0D8D-E426-4158-AD02-27787B3880E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>May</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Agregoaldjf{lñaskdjfñ}asd</t>
+  </si>
+  <si>
+    <t>asñldjhdjfas{dñjfc</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4021,6 +4024,11 @@
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
